--- a/Web/UploadFile/订单关联信息.xlsx
+++ b/Web/UploadFile/订单关联信息.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="订单关联信息" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>单位名称/瓷块经销商</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>种类</t>
-  </si>
-  <si>
-    <t>牙位</t>
   </si>
   <si>
     <t>保修期</t>
@@ -124,6 +121,22 @@
   <si>
     <t>医生</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙位A（上右位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙位B（上左位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙位C（下右位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙位D（下左位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -531,13 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
@@ -554,11 +569,16 @@
     <col min="16" max="16" width="10" customWidth="1"/>
     <col min="17" max="17" width="12.5" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="23" max="24" width="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.375" customWidth="1"/>
+    <col min="35" max="36" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -579,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -588,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
@@ -624,10 +644,10 @@
         <v>18</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>19</v>
@@ -642,25 +662,34 @@
         <v>22</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="AE1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AH1" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -695,6 +724,9 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
